--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
@@ -143,7 +143,7 @@
     <t>(Citation: welivesec_strongpity)</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
@@ -143,7 +143,7 @@
     <t>(Citation: welivesec_strongpity)</t>
   </si>
   <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
@@ -143,7 +143,7 @@
     <t>(Citation: welivesec_strongpity)</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
@@ -143,7 +143,7 @@
     <t>(Citation: welivesec_strongpity)</t>
   </si>
   <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
@@ -143,7 +143,7 @@
     <t>(Citation: welivesec_strongpity)</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),</t>

--- a/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
+++ b/versions/v16/docs/mobile-attack-v16.1/mobile-attack-v16.1-campaigns.xlsx
@@ -143,7 +143,7 @@
     <t>(Citation: welivesec_strongpity)</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),</t>
